--- a/public/assets/csv/student1.xlsx
+++ b/public/assets/csv/student1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="47">
   <si>
     <t>Student Name</t>
   </si>
@@ -58,60 +58,12 @@
     <t>Weight</t>
   </si>
   <si>
-    <t>ranjana das</t>
-  </si>
-  <si>
-    <t>Male</t>
-  </si>
-  <si>
-    <t>madhav das</t>
-  </si>
-  <si>
-    <t>radhika das</t>
-  </si>
-  <si>
-    <t>ranjan@gmail.com</t>
-  </si>
-  <si>
-    <t>kolkata</t>
-  </si>
-  <si>
-    <t>AB-</t>
-  </si>
-  <si>
-    <t>john doe</t>
-  </si>
-  <si>
-    <t>father</t>
-  </si>
-  <si>
-    <t>mother</t>
-  </si>
-  <si>
-    <t>guardian name1</t>
-  </si>
-  <si>
-    <t>doe@gmail.com</t>
-  </si>
-  <si>
     <t>B+</t>
   </si>
   <si>
-    <t>diana doe</t>
-  </si>
-  <si>
     <t>Female</t>
   </si>
   <si>
-    <t>jenny doe</t>
-  </si>
-  <si>
-    <t>john@gmail.com</t>
-  </si>
-  <si>
-    <t>howrah</t>
-  </si>
-  <si>
     <t>O+</t>
   </si>
   <si>
@@ -121,12 +73,6 @@
     <t>section</t>
   </si>
   <si>
-    <t>V</t>
-  </si>
-  <si>
-    <t>VII</t>
-  </si>
-  <si>
     <t>A</t>
   </si>
   <si>
@@ -148,13 +94,67 @@
     <t>Admission Date</t>
   </si>
   <si>
-    <t>2023-24</t>
-  </si>
-  <si>
-    <t>2024-25</t>
-  </si>
-  <si>
-    <t>2026-27</t>
+    <t>X</t>
+  </si>
+  <si>
+    <t>somnath khatua</t>
+  </si>
+  <si>
+    <t>medinipur</t>
+  </si>
+  <si>
+    <t>Rima khatua</t>
+  </si>
+  <si>
+    <t>2024-2025</t>
+  </si>
+  <si>
+    <t>Soma Khatua</t>
+  </si>
+  <si>
+    <t>som@gmail.com</t>
+  </si>
+  <si>
+    <t>Soma das</t>
+  </si>
+  <si>
+    <t>sm@mail.com</t>
+  </si>
+  <si>
+    <t>XI</t>
+  </si>
+  <si>
+    <t>VI</t>
+  </si>
+  <si>
+    <t>AB+</t>
+  </si>
+  <si>
+    <t>2027-2028</t>
+  </si>
+  <si>
+    <t>nupur das</t>
+  </si>
+  <si>
+    <t>nupur@gmail.com</t>
+  </si>
+  <si>
+    <t>sourav das</t>
+  </si>
+  <si>
+    <t>2027-2029</t>
+  </si>
+  <si>
+    <t>nadia</t>
+  </si>
+  <si>
+    <t>north 24 pargana</t>
+  </si>
+  <si>
+    <t>som1@gmail.com</t>
+  </si>
+  <si>
+    <t>som2@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -996,15 +996,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S4"/>
+  <dimension ref="A1:S6"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="S4" sqref="S4"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="5.42578125" bestFit="1" customWidth="1"/>
@@ -1022,6 +1022,7 @@
     <col min="16" max="16" width="6.85546875" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="7.42578125" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="10.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.25">
@@ -1035,16 +1036,16 @@
         <v>7</v>
       </c>
       <c r="D1" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="E1" t="s">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="F1" t="s">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="G1" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="H1" t="s">
         <v>5</v>
@@ -1065,7 +1066,7 @@
         <v>3</v>
       </c>
       <c r="N1" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="O1" t="s">
         <v>11</v>
@@ -1077,192 +1078,313 @@
         <v>13</v>
       </c>
       <c r="R1" t="s">
+        <v>10</v>
+      </c>
+      <c r="S1" t="s">
         <v>9</v>
-      </c>
-      <c r="S1" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>18</v>
+        <v>46</v>
       </c>
       <c r="C2">
-        <v>9412512037</v>
+        <v>6412364578</v>
       </c>
       <c r="D2" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="E2">
-        <v>18</v>
+        <v>79</v>
       </c>
       <c r="F2" s="1">
-        <v>44767</v>
+        <v>45781</v>
       </c>
       <c r="G2" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="H2" s="2">
-        <v>791362154137</v>
+        <v>671234871230</v>
       </c>
       <c r="I2" t="s">
         <v>15</v>
       </c>
       <c r="J2" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="K2" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="L2" t="s">
+        <v>27</v>
+      </c>
+      <c r="M2" t="s">
+        <v>29</v>
+      </c>
+      <c r="N2" t="s">
+        <v>24</v>
+      </c>
+      <c r="O2" t="s">
         <v>16</v>
       </c>
-      <c r="M2" t="s">
-        <v>17</v>
-      </c>
-      <c r="N2" t="s">
-        <v>42</v>
-      </c>
-      <c r="O2" t="s">
-        <v>20</v>
-      </c>
       <c r="P2">
-        <v>5.0999999999999996</v>
+        <v>5.2</v>
       </c>
       <c r="Q2">
-        <v>45</v>
-      </c>
-      <c r="R2" s="1">
-        <v>45839</v>
-      </c>
-      <c r="S2" t="s">
-        <v>44</v>
+        <v>150</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="S2" s="1">
+        <v>43957</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3">
+        <v>6012364579</v>
+      </c>
+      <c r="D3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E3">
+        <v>20</v>
+      </c>
+      <c r="F3" s="1">
+        <v>45782</v>
+      </c>
+      <c r="G3" t="s">
         <v>21</v>
       </c>
-      <c r="B3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C3">
-        <v>8421321541</v>
-      </c>
-      <c r="D3" t="s">
-        <v>36</v>
-      </c>
-      <c r="E3">
-        <v>19</v>
-      </c>
-      <c r="F3" s="1">
-        <v>45133</v>
-      </c>
-      <c r="G3" t="s">
-        <v>38</v>
-      </c>
       <c r="H3" s="2">
-        <v>791362154180</v>
+        <v>671234871231</v>
       </c>
       <c r="I3" t="s">
         <v>15</v>
       </c>
       <c r="J3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L3" t="s">
+        <v>27</v>
+      </c>
+      <c r="M3" t="s">
+        <v>29</v>
+      </c>
+      <c r="N3" t="s">
         <v>24</v>
       </c>
-      <c r="K3" t="s">
-        <v>19</v>
-      </c>
-      <c r="L3" t="s">
-        <v>22</v>
-      </c>
-      <c r="M3" t="s">
-        <v>23</v>
-      </c>
-      <c r="N3" t="s">
-        <v>42</v>
-      </c>
       <c r="O3" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="P3">
-        <v>5.0999999999999996</v>
+        <v>5.2</v>
       </c>
       <c r="Q3">
-        <v>50</v>
-      </c>
-      <c r="R3" s="1">
-        <v>44259</v>
-      </c>
-      <c r="S3" t="s">
-        <v>45</v>
+        <v>150</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="S3" s="1">
+        <v>43958</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>27</v>
-      </c>
-      <c r="B4" t="s">
-        <v>30</v>
+        <v>39</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>40</v>
       </c>
       <c r="C4">
-        <v>6412364573</v>
+        <v>6412364580</v>
       </c>
       <c r="D4" t="s">
         <v>36</v>
       </c>
       <c r="E4">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="F4" s="1">
-        <v>45865</v>
+        <v>45783</v>
       </c>
       <c r="G4" t="s">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="H4" s="2">
-        <v>791362154067</v>
+        <v>671234871232</v>
       </c>
       <c r="I4" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="J4" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="K4" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="L4" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="M4" t="s">
         <v>29</v>
       </c>
       <c r="N4" t="s">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="O4" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="P4">
         <v>5.2</v>
       </c>
       <c r="Q4">
-        <v>51</v>
-      </c>
-      <c r="R4" s="1">
-        <v>45840</v>
-      </c>
-      <c r="S4" t="s">
-        <v>46</v>
+        <v>150</v>
+      </c>
+      <c r="R4" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="S4" s="1">
+        <v>43959</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5">
+        <v>6412364581</v>
+      </c>
+      <c r="D5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E5">
+        <v>21</v>
+      </c>
+      <c r="F5" s="1">
+        <v>45784</v>
+      </c>
+      <c r="G5" t="s">
+        <v>20</v>
+      </c>
+      <c r="H5" s="2">
+        <v>671234871233</v>
+      </c>
+      <c r="I5" t="s">
+        <v>15</v>
+      </c>
+      <c r="J5" t="s">
+        <v>27</v>
+      </c>
+      <c r="K5" t="s">
+        <v>44</v>
+      </c>
+      <c r="L5" t="s">
+        <v>27</v>
+      </c>
+      <c r="M5" t="s">
+        <v>29</v>
+      </c>
+      <c r="N5" t="s">
+        <v>24</v>
+      </c>
+      <c r="O5" t="s">
+        <v>16</v>
+      </c>
+      <c r="P5">
+        <v>5.2</v>
+      </c>
+      <c r="Q5">
+        <v>150</v>
+      </c>
+      <c r="R5" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="S5" s="1">
+        <v>43960</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>41</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C6">
+        <v>6412364582</v>
+      </c>
+      <c r="D6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E6">
+        <v>21</v>
+      </c>
+      <c r="F6" s="1">
+        <v>45785</v>
+      </c>
+      <c r="G6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H6" s="2">
+        <v>671234871234</v>
+      </c>
+      <c r="I6" t="s">
+        <v>15</v>
+      </c>
+      <c r="J6" t="s">
+        <v>27</v>
+      </c>
+      <c r="K6" t="s">
+        <v>28</v>
+      </c>
+      <c r="L6" t="s">
+        <v>27</v>
+      </c>
+      <c r="M6" t="s">
+        <v>29</v>
+      </c>
+      <c r="N6" t="s">
+        <v>24</v>
+      </c>
+      <c r="O6" t="s">
+        <v>16</v>
+      </c>
+      <c r="P6">
+        <v>5.2</v>
+      </c>
+      <c r="Q6">
+        <v>150</v>
+      </c>
+      <c r="R6" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="S6" s="1">
+        <v>43961</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1"/>
+    <hyperlink ref="B3" r:id="rId1"/>
+    <hyperlink ref="B4" r:id="rId2"/>
+    <hyperlink ref="B6" r:id="rId3"/>
+    <hyperlink ref="B2" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
